--- a/biology/Microbiologie/Litonotidae/Litonotidae.xlsx
+++ b/biology/Microbiologie/Litonotidae/Litonotidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Litonotidae sont une famille de Ciliés de la classe des Gymnostomatea et de l’ordre des Pleurostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Litonotus, dérivé du grec ancien λιτός / litós, « simple, petit », et νῶτος / nôtos, forme alternative de νῶτον / nôton, qui, parmi plusieurs choses, signifie « partie arrière du corps », littéralement « arrière (du corps) frêle ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Litonotus a un corps comprimé latéralement, très allongé avec une région antérieure en forme de cou qui se courbe vers le bord dorsal. L’ouverture buccale est une fente située sur le bord convexe du « cou ». La ciliation est présente sur les deux faces latérales ; celle de la face droite forme des rangées longitudinales parallèles. Des cils plus longs sur la région du cou forment une sorte de « crinière ». Le macronoyau est souvent en deux parties sphériques avec un seul micronoyau coincé entre les deux. Une à plusieurs vacuoles contractiles sont présentes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Litonotus a un corps comprimé latéralement, très allongé avec une région antérieure en forme de cou qui se courbe vers le bord dorsal. L’ouverture buccale est une fente située sur le bord convexe du « cou ». La ciliation est présente sur les deux faces latérales ; celle de la face droite forme des rangées longitudinales parallèles. Des cils plus longs sur la région du cou forment une sorte de « crinière ». Le macronoyau est souvent en deux parties sphériques avec un seul micronoyau coincé entre les deux. Une à plusieurs vacuoles contractiles sont présentes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille ont pu être observées un peu partout sur le globe et dans tous les milieux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille ont pu être observées un peu partout sur le globe et dans tous les milieux.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 janvier 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 janvier 2023) :
 Acineria Dujardin, 1841
 Heminotus Kahl, 1933
 Lionotus Bütschli, 1889 : correction injustifiée du Litonotus de Wresniowski
 Liontous
-Litonotus Wresniowski, 1870 - genre type[3]</t>
+Litonotus Wresniowski, 1870 - genre type</t>
         </is>
       </c>
     </row>
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Litonotidae Kent, 1882[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Litonotidae Kent, 1882.
 </t>
         </is>
       </c>
